--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,16 +1434,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,8 +1617,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1540,16 +1627,16 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1743,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,25 +1775,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,8 +1839,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,13 +1982,13 @@
         <v>414000</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>414000</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,25 +2031,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>414900</v>
+      </c>
+      <c r="E54" s="3">
         <v>415000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>415200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2009,8 +2143,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2021,20 +2155,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,25 +2187,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2119,8 +2265,8 @@
       <c r="E62" s="3">
         <v>14500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>14500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,25 +2379,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E66" s="3">
         <v>26000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E76" s="3">
         <v>389100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>392200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2944,11 +3174,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-414000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3102,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>415300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3400,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -1816,25 +1816,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>414000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>414000</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>414000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>414000</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>414000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>414000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,64 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +753,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +849,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,31 +1014,33 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -995,8 +1048,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,22 +1063,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1140,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1178,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,31 +1216,37 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1169,8 +1254,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1292,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,31 +1330,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1265,31 +1368,37 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,22 +1573,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1457,31 +1596,37 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,31 +1672,37 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1553,45 +1710,57 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,31 +1789,33 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1861,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1899,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,25 +1937,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,31 +1975,37 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1810,13 +2013,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>414000</v>
+        <v>414100</v>
       </c>
       <c r="E47" s="3">
         <v>414000</v>
@@ -1824,11 +2033,11 @@
       <c r="F47" s="3">
         <v>414000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>414000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>414000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1836,14 +2045,20 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,8 +2089,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,13 +2203,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1985,25 +2224,31 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,40 +2279,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>414400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>414600</v>
+      </c>
+      <c r="F54" s="3">
         <v>414900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>415000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>415200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,45 +2353,53 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2146,11 +2413,11 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2158,26 +2425,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,40 +2463,52 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,8 +2539,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2268,11 +2559,11 @@
       <c r="F62" s="3">
         <v>14500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>14500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,40 +2691,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>26000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,31 +2897,37 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,31 +3049,37 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>392900</v>
+      </c>
+      <c r="F76" s="3">
         <v>394000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>389100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>392200</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,68 +3125,80 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3260,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,31 +3450,37 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3508,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3542,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3618,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3177,14 +3636,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-414000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3824,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3348,22 +3839,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>415300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3900,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,34 +1042,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,25 +1093,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,25 +1151,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,34 +1262,37 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>2700</v>
       </c>
       <c r="E23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,34 +1385,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>2700</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1374,34 +1426,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>2700</v>
       </c>
       <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,25 +1643,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1602,34 +1672,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>2700</v>
       </c>
       <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,34 +1754,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>2700</v>
       </c>
       <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,34 +1877,35 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,8 +2039,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1952,20 +2051,20 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,34 +2080,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2121,19 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>414400</v>
+      </c>
+      <c r="E47" s="3">
         <v>414100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>414000</v>
       </c>
       <c r="F47" s="3">
         <v>414000</v>
@@ -2039,8 +2144,8 @@
       <c r="H47" s="3">
         <v>414000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>414000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2051,14 +2156,17 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,16 +2326,19 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2230,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,34 +2408,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>414600</v>
+      </c>
+      <c r="E54" s="3">
         <v>414400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>414900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>415000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>415200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>100</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,20 +2485,21 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2376,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2393,16 +2524,19 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2419,8 +2553,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2431,29 +2565,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,34 +2606,37 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>100</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2565,8 +2711,8 @@
       <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>14500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,34 +2852,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>100</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,34 +3074,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,34 +3238,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18700</v>
+        <v>398100</v>
       </c>
       <c r="E76" s="3">
+        <v>395300</v>
+      </c>
+      <c r="F76" s="3">
         <v>392900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>394000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>389100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>392200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,34 +3366,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>2700</v>
       </c>
       <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,34 +3670,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3642,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-414000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,34 +4073,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>415300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,34 +4155,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,37 +1069,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,28 +1123,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,28 +1185,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,37 +1305,40 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,37 +1437,40 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1429,37 +1481,40 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,28 +1713,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,37 +1745,40 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,37 +1833,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,37 +1964,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,8 +2182,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2092,28 +2194,28 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2124,19 +2226,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>416300</v>
+      </c>
+      <c r="E47" s="3">
         <v>414400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>414100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>414000</v>
       </c>
       <c r="G47" s="3">
         <v>414000</v>
@@ -2147,8 +2252,8 @@
       <c r="I47" s="3">
         <v>414000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>414000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2159,14 +2264,17 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,8 +2460,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2353,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,37 +2534,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>416400</v>
+      </c>
+      <c r="E54" s="3">
         <v>414600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>414600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>415000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>415200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>100</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,8 +2616,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2495,14 +2626,14 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2510,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2527,19 +2658,22 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2556,8 +2690,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2568,32 +2702,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,37 +2746,40 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>100</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2714,8 +2860,8 @@
       <c r="I62" s="3">
         <v>14500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>14500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,37 +3010,40 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>100</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,37 +3248,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,37 +3424,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E76" s="3">
         <v>398100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>395300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>394000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>389100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,37 +3561,40 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,37 +3887,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4081,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3875,11 +4105,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-414000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4085,28 +4331,28 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>415300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,37 +4407,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,79 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +780,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +904,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1000,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1050,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,43 +1121,45 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1114,8 +1167,14 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,34 +1182,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1158,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1241,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,34 +1252,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>5800</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
         <v>2800</v>
       </c>
       <c r="G20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1220,8 +1287,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1264,8 +1337,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,43 +1387,49 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>2500</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="F23" s="3">
         <v>2500</v>
       </c>
       <c r="G23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1352,8 +1437,14 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1361,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1396,8 +1487,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,43 +1537,49 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>2500</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="F26" s="3">
         <v>2500</v>
       </c>
       <c r="G26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1484,43 +1587,49 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>2500</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
         <v>2500</v>
       </c>
       <c r="G27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1528,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1837,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,34 +1852,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-5800</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
         <v>-2800</v>
       </c>
       <c r="G32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1748,43 +1887,49 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>2500</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
         <v>2500</v>
       </c>
       <c r="G33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,43 +1987,49 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>2500</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
         <v>2500</v>
       </c>
       <c r="G35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1880,57 +2037,69 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,43 +2136,45 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2009,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2232,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2282,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2332,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2150,28 +2347,28 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2185,43 +2382,49 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2229,25 +2432,31 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F47" s="3">
         <v>416300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>414400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>414100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>414000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>414000</v>
       </c>
       <c r="I47" s="3">
         <v>414000</v>
@@ -2255,11 +2464,11 @@
       <c r="J47" s="3">
         <v>414000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>414000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>414000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2267,14 +2476,20 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,8 +2532,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,19 +2682,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2476,25 +2715,31 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2782,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F54" s="3">
         <v>416400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>414600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>414400</v>
       </c>
       <c r="G54" s="3">
         <v>414600</v>
       </c>
       <c r="H54" s="3">
+        <v>414400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>414600</v>
+      </c>
+      <c r="J54" s="3">
         <v>414900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>415000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>415200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,52 +2876,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2670,16 +2937,16 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2693,11 +2960,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2705,38 +2972,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
         <v>1800</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,52 +3022,64 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,8 +3122,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2863,11 +3154,11 @@
       <c r="J62" s="3">
         <v>14500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>14500</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3322,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F66" s="3">
         <v>15800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,43 +3592,49 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,43 +3792,49 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F76" s="3">
         <v>400600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>398100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>395300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>392900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>394000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>389100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>392200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,92 +3892,104 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>2500</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
         <v>2500</v>
       </c>
       <c r="G81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3608,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +4021,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,8 +4067,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,43 +4317,49 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4391,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,8 +4437,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,16 +4537,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4108,14 +4567,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-414000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4587,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,43 +4807,49 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>415300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4857,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,8 +4907,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4419,39 +4922,45 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,46 +1149,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,37 +1212,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,37 +1286,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1293,16 +1327,19 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,46 +1433,49 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1452,11 +1498,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1515,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,46 +1592,49 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1593,46 +1645,49 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,37 +1922,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1893,46 +1963,49 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,46 +2069,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,46 +2224,47 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,8 +2434,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2347,32 +2446,32 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,16 +2487,19 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -2406,28 +2508,28 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2438,28 +2540,31 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>416300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>414400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>414100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>414000</v>
       </c>
       <c r="J47" s="3">
         <v>414000</v>
@@ -2470,8 +2575,8 @@
       <c r="L47" s="3">
         <v>414000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>414000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2482,14 +2587,17 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2721,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,46 +2911,49 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E54" s="3">
         <v>12400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>416400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>414600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>414900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>415000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>415200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="O54" s="3">
+        <v>100</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,32 +3008,33 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -2911,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2928,28 +3059,31 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2966,8 +3100,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -2978,41 +3112,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,46 +3165,49 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
+      <c r="O60" s="3">
+        <v>100</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3160,8 +3306,8 @@
       <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>14500</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,46 +3483,49 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E66" s="3">
         <v>17700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
+      <c r="O66" s="3">
+        <v>100</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,46 +3769,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21800</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,46 +3981,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-16500</v>
+        <v>-5500</v>
       </c>
       <c r="E76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>398100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>395300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>392900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>394000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>389100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>392200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,46 +4145,49 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,46 +4537,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,20 +4770,23 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>800</v>
       </c>
       <c r="E94" s="3">
+        <v>400</v>
+      </c>
+      <c r="F94" s="3">
         <v>407400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4573,11 +4803,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-414000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,46 +5056,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-407000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>415300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,13 +5162,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
@@ -4928,31 +5180,31 @@
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBCP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>TBCP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +741,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,8 +1176,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,37 +1189,37 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1203,8 +1230,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,37 +1245,37 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,40 +1320,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1330,8 +1364,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,11 +1376,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,49 +1476,52 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,11 +1547,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1564,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,49 +1644,52 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1648,49 +1700,52 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,40 +1992,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1966,49 +2036,52 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,49 +2148,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,8 +2311,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2234,40 +2321,40 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,8 +2421,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,8 +2533,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,32 +2548,32 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2589,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2499,10 +2601,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2511,28 +2613,28 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2543,31 +2645,34 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E47" s="3">
         <v>11200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>416300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>414400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>414100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>414000</v>
       </c>
       <c r="K47" s="3">
         <v>414000</v>
@@ -2578,8 +2683,8 @@
       <c r="M47" s="3">
         <v>414000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>414000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2590,14 +2695,17 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2844,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,49 +3037,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>416400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>414400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>414600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>414900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>415000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>415200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>100</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,35 +3139,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3045,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3062,31 +3193,34 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3103,8 +3237,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3115,44 +3249,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,49 +3305,52 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>100</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,8 +3417,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3309,8 +3455,8 @@
       <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>14500</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,49 +3641,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>100</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,49 +3943,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21800</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,49 +4167,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>398100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>395300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>394000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>389100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>392200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,49 +4340,52 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,49 +4754,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4834,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,23 +5000,26 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>407400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4806,11 +5036,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-414000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,49 +5302,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-407000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>415300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,16 +5414,19 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
@@ -5183,31 +5435,31 @@
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
